--- a/Collections/Germany/#Germany#FRG#Regular#Commemorative#[1948-2001]#circulation_quality.xlsx
+++ b/Collections/Germany/#Germany#FRG#Regular#Commemorative#[1948-2001]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1C5955-264E-4828-8093-A4509EC60ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF13144E-44AC-4554-B4CD-CBCF30B1F9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4850" yWindow="1400" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1₰" sheetId="12" r:id="rId1"/>
@@ -8502,11 +8502,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="15" ySplit="2" topLeftCell="P27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="3">
         <v>0</v>
@@ -28847,7 +28847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
